--- a/data/raw/Diccionario de Datos STEAM.xlsx
+++ b/data/raw/Diccionario de Datos STEAM.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+  <si>
+    <t>steam_games.gz.json</t>
+  </si>
   <si>
     <t>Columna</t>
   </si>
@@ -148,15 +151,6 @@
     <t>[Kotoshiro, Secret Level SRL, Poolians.com]</t>
   </si>
   <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>Análisis de sentimiento</t>
-  </si>
-  <si>
-    <t>[Mixed, Very Positive, Positive, 3 user reviews]</t>
-  </si>
-  <si>
     <t>metascore</t>
   </si>
   <si>
@@ -164,16 +158,65 @@
   </si>
   <si>
     <t>[80, 74, 77, 75]</t>
+  </si>
+  <si>
+    <t>user_reviews.gz.json</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>identificador unico de usuario</t>
+  </si>
+  <si>
+    <t>[76561197970982479, evcentric, maplemage]</t>
+  </si>
+  <si>
+    <t>user_url</t>
+  </si>
+  <si>
+    <t>URL perfil del usuario</t>
+  </si>
+  <si>
+    <t>http://steamcommunity.com/id/evcentric</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>Review de usuario en formato Json</t>
+  </si>
+  <si>
+    <t>{'funny': '', posted': 'Posted September 8, 2013.','last_edited': '','item_id': '227300','helpful': '0 of 1 people (0%) found this review helpful','recommend': True,'review': "For a simple (it's actually not all that simple but it can be!) truck driving Simulator, it is quite a fun and relaxing game. Playing on simple (or easy?) its just the basic WASD keys for driving but (if you want) the game can be much harder and realistic with having to manually change gears, much harder turning, etc. And reversing in this game is a ♥♥♥♥♥, as I imagine it would be with an actual truck. Luckily, you don't have to reverse park it but you get extra points if you do cause it is bloody hard. But this is suprisingly a nice truck driving game and I had a bit of fun with it."},</t>
+  </si>
+  <si>
+    <t>user_items.gz.json</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>Items de usuario en formato Json</t>
+  </si>
+  <si>
+    <t>{'item_id': '273350', 'item_name': 'Evolve Stage 2', 'playtime_forever': 58, 'playtime_2weeks': 0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -192,6 +235,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -207,12 +251,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -227,17 +301,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -465,194 +553,301 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C6"/>
-    <hyperlink r:id="rId2" ref="C10"/>
+    <hyperlink r:id="rId1" ref="C7"/>
+    <hyperlink r:id="rId2" ref="C11"/>
+    <hyperlink r:id="rId3" ref="C22"/>
+    <hyperlink r:id="rId4" ref="C28"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>